--- a/LotHistory/WISOL.UI/LotID-Data.xlsx
+++ b/LotHistory/WISOL.UI/LotID-Data.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="LOTID" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Lot ID</t>
-  </si>
-  <si>
     <t>CNM056FJD00000</t>
   </si>
   <si>
     <t>CNM052FJD00000</t>
+  </si>
+  <si>
+    <t>Lot ID/MARKING/REEL ID</t>
   </si>
 </sst>
 </file>
@@ -376,27 +376,27 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
